--- a/din_meter_atm90e36.xlsx
+++ b/din_meter_atm90e36.xlsx
@@ -9,6 +9,17 @@
   <sheets>
     <sheet name="din_meter_atm90e36. " sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="BoardQty">'din_meter_atm90e36. '!$G$1</definedName>
+    <definedName name="digikey_part_data">'din_meter_atm90e36. '!$H$5:$L$26</definedName>
+    <definedName name="farnell_part_data">'din_meter_atm90e36. '!$M$5:$Q$26</definedName>
+    <definedName name="global_part_data">'din_meter_atm90e36. '!$A$5:$G$26</definedName>
+    <definedName name="mouser_part_data">'din_meter_atm90e36. '!$R$5:$V$26</definedName>
+    <definedName name="newark_part_data">'din_meter_atm90e36. '!$W$5:$AA$26</definedName>
+    <definedName name="rs_part_data">'din_meter_atm90e36. '!$AB$5:$AF$26</definedName>
+    <definedName name="tme_part_data">'din_meter_atm90e36. '!$AG$5:$AK$26</definedName>
+    <definedName name="TotalCost">'din_meter_atm90e36. '!$G$3</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -19,6 +30,84 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of parts found at this distributor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of parts found at this distributor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of parts found at this distributor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of parts found at this distributor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of parts found at this distributor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of parts found at this distributor.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A6" authorId="0">
       <text>
         <r>
@@ -54,7 +143,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Description of each part.</t>
+          <t>PCB footprint for each part.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +156,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>PCB footprint for each part.</t>
+          <t>Manufacturer number for each part.</t>
         </r>
       </text>
     </comment>
@@ -80,39 +169,40 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Manufacturer of each part.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manufacturer number for each part.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Total number of each part needed to assemble the board.
+          <t>Total number of each part needed to assemble the board(s).
+Gray -&gt; Not manf# codes.
 Red -&gt; No parts available.
 Orange -&gt; Parts available, but not enough.
 Yellow -&gt; Enough parts available, but haven't purchased enough.</t>
         </r>
       </text>
     </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Minimum unit price for each part across all distributors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Minimum extended price for each part across all distributors.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H6" authorId="0">
       <text>
         <r>
@@ -122,7 +212,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Minimum unit price for each part across all distributors.</t>
+          <t>Available quantity of each part at the distributor.
+Red -&gt; No quantity available.
+Orange -&gt; Too little quantity available.</t>
         </r>
       </text>
     </comment>
@@ -135,7 +227,1032 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Minimum extended price for each part across all distributors.</t>
+          <t>Purchase quantity of each part from this distributor.
+Red -&gt; Purchasing more than the available quantity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit price of each part from this distributor.
+Green -&gt; lowest price.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Unit Price) x (Purchase Qty) of each part from this distributor.
+Red -&gt; Next price break is cheaper.
+Green -&gt; Cheapest supplier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Available quantity of each part at the distributor.
+Red -&gt; No quantity available.
+Orange -&gt; Too little quantity available.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Purchase quantity of each part from this distributor.
+Red -&gt; Purchasing more than the available quantity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit price of each part from this distributor.
+Green -&gt; lowest price.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Unit Price) x (Purchase Qty) of each part from this distributor.
+Red -&gt; Next price break is cheaper.
+Green -&gt; Cheapest supplier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Available quantity of each part at the distributor.
+Red -&gt; No quantity available.
+Orange -&gt; Too little quantity available.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Purchase quantity of each part from this distributor.
+Red -&gt; Purchasing more than the available quantity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit price of each part from this distributor.
+Green -&gt; lowest price.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Unit Price) x (Purchase Qty) of each part from this distributor.
+Red -&gt; Next price break is cheaper.
+Green -&gt; Cheapest supplier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Available quantity of each part at the distributor.
+Red -&gt; No quantity available.
+Orange -&gt; Too little quantity available.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Purchase quantity of each part from this distributor.
+Red -&gt; Purchasing more than the available quantity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit price of each part from this distributor.
+Green -&gt; lowest price.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Unit Price) x (Purchase Qty) of each part from this distributor.
+Red -&gt; Next price break is cheaper.
+Green -&gt; Cheapest supplier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Available quantity of each part at the distributor.
+Red -&gt; No quantity available.
+Orange -&gt; Too little quantity available.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Purchase quantity of each part from this distributor.
+Red -&gt; Purchasing more than the available quantity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit price of each part from this distributor.
+Green -&gt; lowest price.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Unit Price) x (Purchase Qty) of each part from this distributor.
+Red -&gt; Next price break is cheaper.
+Green -&gt; Cheapest supplier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Available quantity of each part at the distributor.
+Red -&gt; No quantity available.
+Orange -&gt; Too little quantity available.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Purchase quantity of each part from this distributor.
+Red -&gt; Purchasing more than the available quantity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit price of each part from this distributor.
+Green -&gt; lowest price.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Unit Price) x (Purchase Qty) of each part from this distributor.
+Red -&gt; Next price break is cheaper.
+Green -&gt; Cheapest supplier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.21      $0.21
+    10   $0.15      $1.46
+   100   $0.07      $6.88
+   500   $0.05     $24.12
+  1000   $0.04     $39.94
+  4000   $0.03    $118.24
+  8000   $0.03    $220.00
+ 12000   $0.03    $313.56</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.09      $0.09
+   100   $0.09      $9.35
+   500   $0.05     $26.42
+  1000   $0.04     $44.25
+  2000   $0.04     $82.51</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.20      $0.20
+    10   $0.13      $1.34
+   100   $0.07      $6.90
+   500   $0.05     $24.00
+  1000   $0.04     $43.00
+  4000   $0.03    $136.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.03      $0.03
+  4000   $0.03    $132.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.09      $0.09
+   100   $0.09      $9.35
+   500   $0.08     $42.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.05      $0.05
+    10   $0.05      $0.48
+   100   $0.03      $2.85
+  1000   $0.02     $22.42
+  4000   $0.02     $77.20
+ 16000   $0.02    $300.16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.06      $0.55
+   100   $0.02      $2.46
+   500   $0.02      $8.79
+  1000   $0.01     $13.82
+  2500   $0.01     $31.40
+  5000   $0.01     $57.80
+ 10000   $0.01     $91.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.06      $0.56
+   100   $0.03      $2.50
+   500   $0.02      $9.00
+  1000   $0.01     $14.00
+  5000   $0.01     $65.00
+ 10000   $0.01     $90.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.07      $0.65
+   100   $0.03      $2.92
+   500   $0.02     $10.41
+  1000   $0.02     $16.37
+  2500   $0.01     $37.20
+  5000   $0.01     $68.45
+ 10000   $0.01    $108.60
+ 20000   $0.01    $206.80
+ 30000   $0.01    $294.60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.06      $0.06
+   100   $0.06      $5.77
+   500   $0.04     $19.01
+  2500   $0.03     $65.44
+  5000   $0.02     $99.71</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.07      $0.70
+   100   $0.03      $3.10
+   500   $0.02     $10.50
+  1000   $0.02     $18.00
+  2500   $0.01     $37.50
+  5000   $0.01     $70.00
+ 10000   $0.01    $110.00
+ 20000   $0.01    $200.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.07      $0.07
+    10   $0.07      $0.68
+    25   $0.06      $1.38
+    50   $0.04      $2.15
+   100   $0.03      $3.00
+   250   $0.03      $6.50
+   500   $0.02     $10.50
+  1000   $0.02     $17.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $3.33      $3.33
+    25   $3.04     $76.06
+   100   $2.93    $292.83
+  1000   $2.93   $2928.25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $3.86      $3.86
+    10   $3.55     $35.50
+    25   $3.13     $78.25
+   100   $3.00    $300.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.16      $1.16
+    10   $1.02     $10.20
+   100   $0.88     $88.00
+   500   $0.72    $360.00
+  1000   $0.64    $640.00
+  5000   $0.56   $2800.00
+ 10000   $0.53   $5320.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.01      $1.01
+    10   $0.86      $8.60
+   100   $0.75     $74.90
+   250   $0.71    $177.50
+   500   $0.65    $327.00
+  1000   $0.56    $561.00
+  2500   $0.47   $1187.50
+  5000   $0.45   $2265.00
+ 10000   $0.44   $4430.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.07      $0.74
+   100   $0.03      $2.85
+  1000   $0.01     $12.54
+  2500   $0.01     $27.07
+  5000   $0.01     $48.45
+ 10000   $0.01     $85.60
+ 30000   $0.01    $225.60
+ 50000   $0.01    $358.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.11      $0.11
+    10   $0.09      $0.89
+    50   $0.05      $2.43
+   100   $0.04      $3.60
+   250   $0.03      $7.17
+   500   $0.02     $11.97
+  1000   $0.02     $20.32</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.04      $0.44
+   100   $0.02      $2.00
+  1000   $0.01     $14.00
+  2000   $0.01     $20.00
+ 10000   $0.01     $90.00
+ 20000   $0.01    $160.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.08      $0.84
+    50   $0.05      $2.30
+   100   $0.03      $3.40
+   250   $0.03      $6.50
+   500   $0.02     $10.00
+  1000   $0.01     $15.00
+  2500   $0.01     $32.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
         </r>
       </text>
     </comment>
@@ -144,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -155,15 +1272,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>Manf</t>
-  </si>
-  <si>
     <t>Manf#</t>
   </si>
   <si>
@@ -174,13 +1285,297 @@
   </si>
   <si>
     <t>Ext$</t>
+  </si>
+  <si>
+    <t>C1,C8,C11,C15,C18</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0402</t>
+  </si>
+  <si>
+    <t>C2,C6,C7,C12,C16</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0603</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>GRM188R61A106KE69D</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>18n</t>
+  </si>
+  <si>
+    <t>GRM155R71H183KA12D</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GRM155R61H104KE19D</t>
+  </si>
+  <si>
+    <t>C9,C10,C14,C19-C36</t>
+  </si>
+  <si>
+    <t>DMA_0,DMA_1,PM0_0,PM0_1,PM1_0,PM1_1</t>
+  </si>
+  <si>
+    <t>GS3</t>
+  </si>
+  <si>
+    <t>Connectors:GS3</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>Whatnick_logo:Whatnick_logo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Logo_Open_Hardware_Small</t>
+  </si>
+  <si>
+    <t>Symbols:OSHW-Logo2_7.3x6mm_SilkScreen</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>ATM90E36_ATM90E36</t>
+  </si>
+  <si>
+    <t>Housings_QFP:TQFP-48_7x7mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t>ATM90E36A-AU-Y</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Conn_01x10</t>
+  </si>
+  <si>
+    <t>Molex_board2board:SHDR10W60P200_1X10_2150X400X335P</t>
+  </si>
+  <si>
+    <t>52418-1010</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>Conn_02x18_Row_Letter_First</t>
+  </si>
+  <si>
+    <t>Connectors:PCI-EXPRESS</t>
+  </si>
+  <si>
+    <t>L1,L2</t>
+  </si>
+  <si>
+    <t>L_Small</t>
+  </si>
+  <si>
+    <t>Inductors_SMD:L_0402</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_0402</t>
+  </si>
+  <si>
+    <t>RR0510P-102-D</t>
+  </si>
+  <si>
+    <t>R2,R4,R6,R7,R9,R11-R26</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>SYM1</t>
+  </si>
+  <si>
+    <t>SYM_Flash_Small</t>
+  </si>
+  <si>
+    <t>Whatnick_logo:Fsilk_HV</t>
+  </si>
+  <si>
+    <t>Y1,Y2</t>
+  </si>
+  <si>
+    <t>Crystal_GND24</t>
+  </si>
+  <si>
+    <t>Crystals:Crystal_SMD_2520-4pin_2.5x2.0mm</t>
+  </si>
+  <si>
+    <t>Prj:</t>
+  </si>
+  <si>
+    <t>din_meter_atm90e36.xml</t>
+  </si>
+  <si>
+    <t>Co.:</t>
+  </si>
+  <si>
+    <t>Prj date:</t>
+  </si>
+  <si>
+    <t>23/02/2018 8:24:10 AM</t>
+  </si>
+  <si>
+    <t>Board Qty:</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
+  <si>
+    <t>Unit Cost:</t>
+  </si>
+  <si>
+    <t>$ date:</t>
+  </si>
+  <si>
+    <t>2018-02-23 08:43:12</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>Avail</t>
+  </si>
+  <si>
+    <t>Purch</t>
+  </si>
+  <si>
+    <t>Cat#</t>
+  </si>
+  <si>
+    <t>490-10474-1-ND</t>
+  </si>
+  <si>
+    <t>490-6356-1-ND</t>
+  </si>
+  <si>
+    <t>490-11917-1-ND</t>
+  </si>
+  <si>
+    <t>NonStk</t>
+  </si>
+  <si>
+    <t>ATM90E36A-AU-Y-ND</t>
+  </si>
+  <si>
+    <t>WM6478-ND</t>
+  </si>
+  <si>
+    <t>RR05P1.0KDCT-ND</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>2494233</t>
+  </si>
+  <si>
+    <t>2218856</t>
+  </si>
+  <si>
+    <t>9363319</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>81-GRM188R61A106KE9D</t>
+  </si>
+  <si>
+    <t>81-GRM155R71H183KA2D</t>
+  </si>
+  <si>
+    <t>81-GRM155R61H104KE9D</t>
+  </si>
+  <si>
+    <t>556-ATM90E36A-AU-Y</t>
+  </si>
+  <si>
+    <t>538-52418-1010</t>
+  </si>
+  <si>
+    <t>754-RR0510P-102D</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>03AC2657</t>
+  </si>
+  <si>
+    <t>48W5731</t>
+  </si>
+  <si>
+    <t>28K0310</t>
+  </si>
+  <si>
+    <t>Rs Components</t>
+  </si>
+  <si>
+    <t>846-7293</t>
+  </si>
+  <si>
+    <t>Tme</t>
+  </si>
+  <si>
+    <t>Distributors scraped by KiCost® v.0.1.42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +1588,46 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -210,8 +1645,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF909090"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +1670,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF303030"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004A85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2AE06"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C4DA1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,23 +1719,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -540,11 +2118,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:I6"/>
+  <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.140625"/>
     <col min="2" max="2" width="9.140625"/>
@@ -552,58 +2135,3355 @@
     <col min="4" max="4" width="9.140625"/>
     <col min="5" max="5" width="9.140625"/>
     <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="9.140625"/>
-    <col min="8" max="8" width="9.140625"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" outlineLevel="1"/>
+    <col min="9" max="9" width="9.140625" outlineLevel="2"/>
+    <col min="10" max="10" width="9.140625" outlineLevel="2"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="13" max="13" width="9.140625" outlineLevel="1"/>
+    <col min="14" max="14" width="9.140625" outlineLevel="2"/>
+    <col min="15" max="15" width="9.140625" outlineLevel="2"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="18" max="18" width="9.140625" outlineLevel="1"/>
+    <col min="19" max="19" width="9.140625" outlineLevel="2"/>
+    <col min="20" max="20" width="9.140625" outlineLevel="2"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="23" max="23" width="9.140625" outlineLevel="1"/>
+    <col min="24" max="24" width="9.140625" outlineLevel="2"/>
+    <col min="25" max="25" width="9.140625" outlineLevel="2"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="28" max="28" width="9.140625" outlineLevel="1"/>
+    <col min="29" max="29" width="9.140625" outlineLevel="2"/>
+    <col min="30" max="30" width="9.140625" outlineLevel="2"/>
+    <col min="31" max="31" width="15.7109375" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="33" max="33" width="9.140625" outlineLevel="1"/>
+    <col min="34" max="34" width="9.140625" outlineLevel="2"/>
+    <col min="35" max="35" width="9.140625" outlineLevel="2"/>
+    <col min="36" max="36" width="15.7109375" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+    <row r="1" spans="1:37">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+    <row r="2" spans="1:37">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5">
+        <f>TotalCost/BoardQty</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="6">
+        <f>SUM(G7:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <f>SUM(K7:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <f>(ROWS(K7:K26)-COUNTBLANK(K7:K26))&amp;" of "&amp;ROWS(K7:K26)&amp;" parts found"</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f>SUM(P7:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>(ROWS(P7:P26)-COUNTBLANK(P7:P26))&amp;" of "&amp;ROWS(P7:P26)&amp;" parts found"</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f>SUM(U7:U26)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f>(ROWS(U7:U26)-COUNTBLANK(U7:U26))&amp;" of "&amp;ROWS(U7:U26)&amp;" parts found"</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>SUM(Z7:Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <f>(ROWS(Z7:Z26)-COUNTBLANK(Z7:Z26))&amp;" of "&amp;ROWS(Z7:Z26)&amp;" parts found"</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6">
+        <f>SUM(AE7:AE26)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="7">
+        <f>(ROWS(AE7:AE26)-COUNTBLANK(AE7:AE26))&amp;" of "&amp;ROWS(AE7:AE26)&amp;" parts found"</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="6">
+        <f>SUM(AJ7:AJ26)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="7">
+        <f>(ROWS(AJ7:AJ26)-COUNTBLANK(AJ7:AJ26))&amp;" of "&amp;ROWS(AJ7:AJ26)&amp;" parts found"</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16">
+        <f>BoardQty*5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <f>iferror(E7*F7,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16">
+        <f>BoardQty*5</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <f>iferror(E8*F8,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <f>iferror(E9*F9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>309232</v>
+      </c>
+      <c r="J9" s="17">
+        <f>iferror(lookup(if(I9="",E9,I9),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.21,0.146,0.0688,0.04824,0.03994,0.02956,0.0275,0.02613}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <f>iferror(if(I9="",E9,I9)*J9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="17">
+        <f>iferror(lookup(if(N9="",E9,N9),{0,1,100,500,1000,2000},{0.0,0.09348,0.09348,0.052847359999999996,0.044247199999999993,0.041255839999999995}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <f>iferror(if(N9="",E9,N9)*O9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="17">
+        <f>iferror(lookup(if(S9="",E9,S9),{0,1,10,100,500,1000,4000},{0.0,0.195,0.134,0.069,0.048,0.043,0.034}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <f>iferror(if(S9="",E9,S9)*T9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="17">
+        <f>iferror(lookup(if(X9="",E9,X9),{0,1,4000},{0.0,0.033,0.033}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <f>iferror(if(X9="",E9,X9)*Y9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD9" s="17">
+        <f>iferror(lookup(if(AC9="",E9,AC9),{0,1,100,500},{0.0,0.09348,0.09348,0.0847552}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="17">
+        <f>iferror(if(AC9="",E9,AC9)*AD9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI9" s="17">
+        <f>iferror(lookup(if(AH9="",E9,AH9),{0,1,10,100,1000,4000,16000},{0.0,0.04757,0.04757,0.02854,0.02242,0.0193,0.01876}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="17">
+        <f>iferror(if(AH9="",E9,AH9)*AI9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <f>iferror(E10*F10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>130493</v>
+      </c>
+      <c r="J10" s="17">
+        <f>iferror(lookup(if(I10="",E10,I10),{0,1,10,100,500,1000,2500,5000,10000},{0.0,0.1,0.055,0.0246,0.01758,0.01382,0.01256,0.01156,0.00918}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <f>iferror(if(I10="",E10,I10)*J10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="16">
+        <v>52094</v>
+      </c>
+      <c r="T10" s="17">
+        <f>iferror(lookup(if(S10="",E10,S10),{0,1,10,100,500,1000,5000,10000},{0.0,0.103,0.056,0.025,0.018,0.014,0.013,0.009}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <f>iferror(if(S10="",E10,S10)*T10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <f>iferror(E11*F11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="17">
+        <f>iferror(lookup(if(I11="",E11,I11),{0,1,10,100,500,1000,2500,5000,10000,20000,30000},{0.0,0.1,0.065,0.0292,0.02082,0.01637,0.01488,0.01369,0.01086,0.01034,0.00982}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <f>iferror(if(I11="",E11,I11)*J11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="17">
+        <f>iferror(lookup(if(N11="",E11,N11),{0,1,100,500,2500,5000},{0.0,0.05770832,0.05770832,0.0380152,0.0261744,0.0199424}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <f>iferror(if(N11="",E11,N11)*O11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="17">
+        <f>iferror(lookup(if(S11="",E11,S11),{0,1,10,100,500,1000,2500,5000,10000,20000},{0.0,0.103,0.07,0.031,0.021,0.018,0.015,0.014,0.011,0.01}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <f>iferror(if(S11="",E11,S11)*T11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="17">
+        <f>iferror(lookup(if(X11="",E11,X11),{0,1,10,25,50,100,250,500,1000},{0.0,0.068,0.068,0.055,0.043,0.03,0.026,0.021,0.017}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="17">
+        <f>iferror(if(X11="",E11,X11)*Y11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16">
+        <f>BoardQty*21</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <f>iferror(E12*F12,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="16">
+        <f>BoardQty*6</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <f>iferror(E13*F13,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <f>iferror(E14*F14,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <f>iferror(E15*F15,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <f>iferror(E16*F16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="17">
+        <f>iferror(lookup(if(I16="",E16,I16),{0,1,25,100,1000},{0.0,3.33,3.0424,2.9283,2.92825}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <f>iferror(if(I16="",E16,I16)*J16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="16">
+        <v>1031</v>
+      </c>
+      <c r="T16" s="17">
+        <f>iferror(lookup(if(S16="",E16,S16),{0,1,10,25,100},{0.0,3.86,3.55,3.13,3.0}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <f>iferror(if(S16="",E16,S16)*T16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f>iferror(E17*F17,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <f>iferror(E18*F18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1151</v>
+      </c>
+      <c r="J18" s="17">
+        <f>iferror(lookup(if(I18="",E18,I18),{0,1,10,100,500,1000,5000,10000},{0.0,1.16,1.02,0.88,0.72,0.64,0.56,0.532}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f>iferror(if(I18="",E18,I18)*J18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="16">
+        <v>5339</v>
+      </c>
+      <c r="T18" s="17">
+        <f>iferror(lookup(if(S18="",E18,S18),{0,1,10,100,250,500,1000,2500,5000,10000},{0.0,1.01,0.86,0.749,0.71,0.654,0.561,0.475,0.453,0.443}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <f>iferror(if(S18="",E18,S18)*T18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <f>iferror(E19*F19,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="16">
+        <f>BoardQty*2</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <f>iferror(E20*F20,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <f>iferror(E21*F21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>280461</v>
+      </c>
+      <c r="J21" s="17">
+        <f>iferror(lookup(if(I21="",E21,I21),{0,1,10,100,1000,2500,5000,10000,30000,50000},{0.0,0.1,0.074,0.0285,0.01254,0.01083,0.00969,0.00856,0.00752,0.00716}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <f>iferror(if(I21="",E21,I21)*J21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="16">
+        <v>4943</v>
+      </c>
+      <c r="O21" s="17">
+        <f>iferror(lookup(if(N21="",E21,N21),{0,1,10,50,100,250,500,1000},{0.0,0.10569471999999999,0.08874367999999999,0.048609599999999996,0.03602096,0.028667199999999997,0.023930879999999998,0.02031632}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <f>iferror(if(N21="",E21,N21)*O21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="16">
+        <v>295405</v>
+      </c>
+      <c r="T21" s="17">
+        <f>iferror(lookup(if(S21="",E21,S21),{0,1,10,100,1000,2000,10000,20000},{0.0,0.103,0.044,0.02,0.014,0.01,0.009,0.008}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
+        <f>iferror(if(S21="",E21,S21)*T21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="W21" s="16">
+        <v>4943</v>
+      </c>
+      <c r="Y21" s="17">
+        <f>iferror(lookup(if(X21="",E21,X21),{0,1,10,50,100,250,500,1000,2500},{0.0,0.1,0.084,0.046,0.034,0.026,0.02,0.015,0.013}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17">
+        <f>iferror(if(X21="",E21,X21)*Y21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="A22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="16">
+        <f>BoardQty*21</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <f>iferror(E22*F22,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <f>iferror(E23*F23,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <f>iferror(E24*F24,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="16">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <f>iferror(E25*F25,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="16">
+        <f>BoardQty*2</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <f>iferror(E26*F26,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
+      <c r="A28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="7">
+        <f>IFERROR(IF(OR(I7:I26),COUNTIF(I7:I26,"&gt;0")&amp;" of "&amp;ROWS(I7:I26)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <f>IFERROR(IF(OR(N7:N26),COUNTIF(N7:N26,"&gt;0")&amp;" of "&amp;ROWS(N7:N26)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <f>IFERROR(IF(OR(S7:S26),COUNTIF(S7:S26,"&gt;0")&amp;" of "&amp;ROWS(S7:S26)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <f>IFERROR(IF(OR(X7:X26),COUNTIF(X7:X26,"&gt;0")&amp;" of "&amp;ROWS(X7:X26)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7">
+        <f>IFERROR(IF(OR(AC7:AC26),COUNTIF(AC7:AC26,"&gt;0")&amp;" of "&amp;ROWS(AC7:AC26)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="7">
+        <f>IFERROR(IF(OR(AH7:AH26),COUNTIF(AH7:AH26,"&gt;0")&amp;" of "&amp;ROWS(AH7:AH26)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
+      <c r="I29">
+        <f t="array" ref="I29">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="array" ref="J29">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="array" ref="K29">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="array" ref="N29">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="array" ref="O29">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="array" ref="P29">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="array" ref="S29">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="array" ref="T29">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="array" ref="U29">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="array" ref="X29">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="array" ref="Y29">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="array" ref="Z29">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="array" ref="AC29">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="array" ref="AD29">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="array" ref="AE29">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <f t="array" ref="AH29">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <f t="array" ref="AI29">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <f t="array" ref="AJ29">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36">
+      <c r="I30">
+        <f t="array" ref="I30">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="array" ref="J30">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="array" ref="K30">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="array" ref="N30">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="array" ref="O30">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="array" ref="P30">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="array" ref="S30">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="array" ref="T30">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="array" ref="U30">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="array" ref="X30">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="array" ref="Y30">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="array" ref="Z30">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="array" ref="AC30">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="array" ref="AD30">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="array" ref="AE30">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <f t="array" ref="AH30">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <f t="array" ref="AI30">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <f t="array" ref="AJ30">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
+      <c r="I31">
+        <f t="array" ref="I31">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="array" ref="J31">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="array" ref="K31">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="array" ref="N31">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="array" ref="O31">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="array" ref="P31">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="array" ref="S31">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="array" ref="T31">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="array" ref="U31">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="array" ref="X31">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="array" ref="Y31">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="array" ref="Z31">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="array" ref="AC31">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="array" ref="AD31">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="array" ref="AE31">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <f t="array" ref="AH31">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <f t="array" ref="AI31">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <f t="array" ref="AJ31">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="I32">
+        <f t="array" ref="I32">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="array" ref="J32">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="array" ref="K32">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="array" ref="N32">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="array" ref="O32">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="array" ref="P32">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="array" ref="S32">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="array" ref="T32">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="array" ref="U32">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="array" ref="X32">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="array" ref="Y32">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="array" ref="Z32">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="array" ref="AC32">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="array" ref="AD32">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="array" ref="AE32">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="array" ref="AH32">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <f t="array" ref="AI32">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <f t="array" ref="AJ32">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:36">
+      <c r="I33">
+        <f t="array" ref="I33">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="array" ref="J33">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="array" ref="K33">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="array" ref="N33">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="array" ref="O33">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="array" ref="P33">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="array" ref="S33">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="array" ref="T33">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="array" ref="U33">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="array" ref="X33">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="array" ref="Y33">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="array" ref="Z33">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="array" ref="AC33">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="array" ref="AD33">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="array" ref="AE33">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <f t="array" ref="AH33">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <f t="array" ref="AI33">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <f t="array" ref="AJ33">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:36">
+      <c r="I34">
+        <f t="array" ref="I34">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="array" ref="J34">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="array" ref="K34">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="array" ref="N34">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="array" ref="O34">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="array" ref="P34">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="array" ref="S34">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="array" ref="T34">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="array" ref="U34">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="array" ref="X34">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="array" ref="Y34">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="array" ref="Z34">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="array" ref="AC34">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="array" ref="AD34">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="array" ref="AE34">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <f t="array" ref="AH34">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <f t="array" ref="AI34">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <f t="array" ref="AJ34">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:36">
+      <c r="I35">
+        <f t="array" ref="I35">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="array" ref="J35">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="array" ref="K35">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="array" ref="N35">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="array" ref="O35">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="array" ref="P35">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="array" ref="S35">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="array" ref="T35">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="array" ref="U35">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="array" ref="X35">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="array" ref="Y35">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="array" ref="Z35">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="array" ref="AC35">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="array" ref="AD35">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="array" ref="AE35">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <f t="array" ref="AH35">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <f t="array" ref="AI35">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <f t="array" ref="AJ35">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:36">
+      <c r="I36">
+        <f t="array" ref="I36">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="array" ref="J36">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="array" ref="K36">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="array" ref="N36">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="array" ref="O36">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="array" ref="P36">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="array" ref="S36">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="array" ref="T36">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="array" ref="U36">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="array" ref="X36">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="array" ref="Y36">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="array" ref="Z36">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="array" ref="AC36">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="array" ref="AD36">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="array" ref="AE36">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <f t="array" ref="AH36">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <f t="array" ref="AI36">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <f t="array" ref="AJ36">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:36">
+      <c r="I37">
+        <f t="array" ref="I37">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="array" ref="J37">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="array" ref="K37">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="array" ref="N37">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="array" ref="O37">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="array" ref="P37">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="array" ref="S37">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="array" ref="T37">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="array" ref="U37">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="array" ref="X37">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="array" ref="Y37">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="array" ref="Z37">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="array" ref="AC37">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="array" ref="AD37">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="array" ref="AE37">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <f t="array" ref="AH37">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <f t="array" ref="AI37">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <f t="array" ref="AJ37">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:36">
+      <c r="I38">
+        <f t="array" ref="I38">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="array" ref="J38">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="array" ref="K38">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="array" ref="N38">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="array" ref="O38">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="array" ref="P38">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="array" ref="S38">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="array" ref="T38">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="array" ref="U38">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="array" ref="X38">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="array" ref="Y38">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="array" ref="Z38">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="array" ref="AC38">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="array" ref="AD38">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="array" ref="AE38">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <f t="array" ref="AH38">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <f t="array" ref="AI38">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <f t="array" ref="AJ38">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:36">
+      <c r="I39">
+        <f t="array" ref="I39">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="array" ref="J39">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="array" ref="K39">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="array" ref="N39">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="array" ref="O39">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="array" ref="P39">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="array" ref="S39">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="array" ref="T39">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="array" ref="U39">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="array" ref="X39">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="array" ref="Y39">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="array" ref="Z39">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="array" ref="AC39">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="array" ref="AD39">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="array" ref="AE39">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <f t="array" ref="AH39">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <f t="array" ref="AI39">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <f t="array" ref="AJ39">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:36">
+      <c r="I40">
+        <f t="array" ref="I40">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="array" ref="J40">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="array" ref="K40">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="array" ref="N40">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="array" ref="O40">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="array" ref="P40">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="array" ref="T40">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="array" ref="U40">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="array" ref="X40">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="array" ref="Y40">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="array" ref="Z40">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f t="array" ref="AH40">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <f t="array" ref="AI40">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <f t="array" ref="AJ40">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:36">
+      <c r="I41">
+        <f t="array" ref="I41">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="array" ref="J41">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="array" ref="K41">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="array" ref="N41">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="array" ref="O41">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="array" ref="P41">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="array" ref="T41">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="array" ref="U41">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="array" ref="X41">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="array" ref="Y41">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="array" ref="Z41">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <f t="array" ref="AH41">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <f t="array" ref="AI41">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <f t="array" ref="AJ41">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:36">
+      <c r="I42">
+        <f t="array" ref="I42">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="array" ref="J42">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="array" ref="K42">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="array" ref="N42">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="array" ref="O42">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="array" ref="P42">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="array" ref="T42">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="array" ref="U42">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="array" ref="X42">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="array" ref="Y42">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="array" ref="Z42">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <f t="array" ref="AH42">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <f t="array" ref="AI42">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <f t="array" ref="AJ42">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:36">
+      <c r="I43">
+        <f t="array" ref="I43">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="array" ref="J43">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="array" ref="K43">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="array" ref="N43">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="array" ref="O43">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="array" ref="P43">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="array" ref="T43">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="array" ref="U43">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="array" ref="X43">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="array" ref="Y43">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="array" ref="Z43">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <f t="array" ref="AH43">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <f t="array" ref="AI43">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <f t="array" ref="AJ43">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:36">
+      <c r="I44">
+        <f t="array" ref="I44">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="array" ref="J44">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="array" ref="K44">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="array" ref="N44">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="array" ref="O44">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="array" ref="P44">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="array" ref="T44">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="array" ref="U44">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="array" ref="X44">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="array" ref="Y44">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="array" ref="Z44">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <f t="array" ref="AH44">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <f t="array" ref="AI44">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <f t="array" ref="AJ44">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:36">
+      <c r="I45">
+        <f t="array" ref="I45">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="array" ref="J45">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="array" ref="K45">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="array" ref="N45">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="array" ref="O45">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="array" ref="P45">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="array" ref="T45">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="array" ref="U45">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="array" ref="X45">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="array" ref="Y45">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="array" ref="Z45">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <f t="array" ref="AH45">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <f t="array" ref="AI45">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <f t="array" ref="AJ45">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:36">
+      <c r="I46">
+        <f t="array" ref="I46">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="array" ref="J46">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="array" ref="K46">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="array" ref="N46">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="array" ref="O46">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="array" ref="P46">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="array" ref="T46">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="array" ref="U46">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="array" ref="X46">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="array" ref="Y46">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="array" ref="Z46">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <f t="array" ref="AH46">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <f t="array" ref="AI46">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <f t="array" ref="AJ46">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:36">
+      <c r="I47">
+        <f t="array" ref="I47">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="array" ref="J47">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="array" ref="K47">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="array" ref="N47">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="array" ref="O47">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="array" ref="P47">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="array" ref="T47">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="array" ref="U47">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="array" ref="X47">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="array" ref="Y47">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="array" ref="Z47">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <f t="array" ref="AH47">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <f t="array" ref="AI47">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <f t="array" ref="AJ47">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:36">
+      <c r="I48">
+        <f t="array" ref="I48">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="array" ref="J48">IFERROR(CONCATENATE((INDEX($L$7:$L$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="array" ref="K48">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($L$7:$L$26&lt;&gt;"",IF($I$7:$I$26&lt;&gt;"",ROW($I$7:$I$26)-MIN(ROW($I$7:$I$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="array" ref="N48">IFERROR(CONCATENATE((INDEX($Q$7:$Q$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="array" ref="O48">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="array" ref="P48">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($Q$7:$Q$26&lt;&gt;"",IF($N$7:$N$26&lt;&gt;"",ROW($N$7:$N$26)-MIN(ROW($N$7:$N$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($V$7:$V$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="array" ref="T48">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="array" ref="U48">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($V$7:$V$26&lt;&gt;"",IF($S$7:$S$26&lt;&gt;"",ROW($S$7:$S$26)-MIN(ROW($S$7:$S$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="array" ref="X48">IFERROR(CONCATENATE((INDEX($AA$7:$AA$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f t="array" ref="Y48">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f t="array" ref="Z48">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AA$7:$AA$26&lt;&gt;"",IF($X$7:$X$26&lt;&gt;"",ROW($X$7:$X$26)-MIN(ROW($X$7:$X$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AF$7:$AF$26&lt;&gt;"",IF($AC$7:$AC$26&lt;&gt;"",ROW($AC$7:$AC$26)-MIN(ROW($AC$7:$AC$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <f t="array" ref="AH48">IFERROR(CONCATENATE((INDEX($AK$7:$AK$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <f t="array" ref="AI48">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <f t="array" ref="AJ48">IFERROR(CONCATENATE((INDEX($A$7:$A$26,SMALL(IF($AK$7:$AK$26&lt;&gt;"",IF($AH$7:$AH$26&lt;&gt;"",ROW($AH$7:$AH$26)-MIN(ROW($AH$7:$AH$26))+1,""),""),ROW()-ROW(A$29)+1))),),"")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:I5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AG5:AK5"/>
   </mergeCells>
+  <conditionalFormatting sqref="AB9">
+    <cfRule type="cellIs" dxfId="1" priority="171" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="172" operator="lessThan">
+      <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="cellIs" dxfId="1" priority="173" operator="greaterThan">
+      <formula>AB9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9">
+    <cfRule type="cellIs" dxfId="4" priority="174" operator="lessThanOrEqual">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="4" priority="175" operator="lessThanOrEqual">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="1" priority="176" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="177" operator="lessThan">
+      <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="1" priority="178" operator="greaterThan">
+      <formula>AG9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI9">
+    <cfRule type="cellIs" dxfId="4" priority="179" operator="lessThanOrEqual">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="cellIs" dxfId="4" priority="180" operator="lessThanOrEqual">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>AND(ISBLANK(D10),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>AND(ISBLANK(D11),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>AND(ISBLANK(D12),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>AND(ISBLANK(D13),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="28" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>AND(ISBLANK(D14),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="32" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>AND(ISBLANK(D15),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="36" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>AND(ISBLANK(D16),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="39" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="40" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>AND(ISBLANK(D17),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="44" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="0" priority="45">
+      <formula>AND(ISBLANK(D18),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="46">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="47" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="48" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>AND(ISBLANK(D19),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="51" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="52" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="0" priority="53">
+      <formula>AND(ISBLANK(D20),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="54">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="55" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="56" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="0" priority="57">
+      <formula>AND(ISBLANK(D21),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="59" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="60" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>AND(ISBLANK(D22),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="63" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="64" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="65">
+      <formula>AND(ISBLANK(D23),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="66">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="67" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="68" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="0" priority="69">
+      <formula>AND(ISBLANK(D24),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="70">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="71" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="72" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>AND(ISBLANK(D25),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="75" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="76" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="0" priority="77">
+      <formula>AND(ISBLANK(D26),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="78">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="79" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="80" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(ISBLANK(D7),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>AND(ISBLANK(D8),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>AND(ISBLANK(D9),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="greaterThan">
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="1" priority="86" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="87" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="1" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="92" operator="lessThan">
+      <formula>E11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="1" priority="96" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="97" operator="lessThan">
+      <formula>E16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="1" priority="101" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="102" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="1" priority="106" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="107" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="82" operator="lessThan">
+      <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="greaterThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="1" priority="93" operator="greaterThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="1" priority="98" operator="greaterThan">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="1" priority="103" operator="greaterThan">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="1" priority="108" operator="greaterThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="greaterThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="4" priority="89" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="4" priority="94" operator="lessThanOrEqual">
+      <formula>F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="cellIs" dxfId="4" priority="99" operator="lessThanOrEqual">
+      <formula>F16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="4" priority="104" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="4" priority="109" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="4" priority="84" operator="lessThanOrEqual">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="4" priority="90" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="4" priority="95" operator="lessThanOrEqual">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="4" priority="100" operator="lessThanOrEqual">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" dxfId="4" priority="105" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="cellIs" dxfId="4" priority="110" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="4" priority="85" operator="lessThanOrEqual">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="1" priority="116" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="117" operator="lessThan">
+      <formula>E11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="1" priority="121" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="122" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="1" priority="111" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="112" operator="lessThan">
+      <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="1" priority="118" operator="greaterThan">
+      <formula>M11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="cellIs" dxfId="1" priority="123" operator="greaterThan">
+      <formula>M21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="1" priority="113" operator="greaterThan">
+      <formula>M9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="cellIs" dxfId="4" priority="119" operator="lessThanOrEqual">
+      <formula>F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21">
+    <cfRule type="cellIs" dxfId="4" priority="124" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="cellIs" dxfId="4" priority="114" operator="lessThanOrEqual">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="cellIs" dxfId="4" priority="120" operator="lessThanOrEqual">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21">
+    <cfRule type="cellIs" dxfId="4" priority="125" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="cellIs" dxfId="4" priority="115" operator="lessThanOrEqual">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="cellIs" dxfId="1" priority="131" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="132" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="cellIs" dxfId="1" priority="136" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="137" operator="lessThan">
+      <formula>E11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="1" priority="141" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="142" operator="lessThan">
+      <formula>E16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="1" priority="146" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="147" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="1" priority="151" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="152" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="cellIs" dxfId="1" priority="126" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="127" operator="lessThan">
+      <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="cellIs" dxfId="1" priority="133" operator="greaterThan">
+      <formula>R10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="cellIs" dxfId="1" priority="138" operator="greaterThan">
+      <formula>R11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16">
+    <cfRule type="cellIs" dxfId="1" priority="143" operator="greaterThan">
+      <formula>R16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="1" priority="148" operator="greaterThan">
+      <formula>R18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="cellIs" dxfId="1" priority="153" operator="greaterThan">
+      <formula>R21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
+    <cfRule type="cellIs" dxfId="1" priority="128" operator="greaterThan">
+      <formula>R9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="cellIs" dxfId="4" priority="134" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11">
+    <cfRule type="cellIs" dxfId="4" priority="139" operator="lessThanOrEqual">
+      <formula>F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="cellIs" dxfId="4" priority="144" operator="lessThanOrEqual">
+      <formula>F16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="4" priority="149" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="4" priority="154" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9">
+    <cfRule type="cellIs" dxfId="4" priority="129" operator="lessThanOrEqual">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="cellIs" dxfId="4" priority="135" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="cellIs" dxfId="4" priority="140" operator="lessThanOrEqual">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16">
+    <cfRule type="cellIs" dxfId="4" priority="145" operator="lessThanOrEqual">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18">
+    <cfRule type="cellIs" dxfId="4" priority="150" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21">
+    <cfRule type="cellIs" dxfId="4" priority="155" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="cellIs" dxfId="4" priority="130" operator="lessThanOrEqual">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="cellIs" dxfId="1" priority="161" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="162" operator="lessThan">
+      <formula>E11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="cellIs" dxfId="1" priority="166" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="167" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9">
+    <cfRule type="cellIs" dxfId="1" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="157" operator="lessThan">
+      <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
+    <cfRule type="cellIs" dxfId="1" priority="163" operator="greaterThan">
+      <formula>W11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21">
+    <cfRule type="cellIs" dxfId="1" priority="168" operator="greaterThan">
+      <formula>W21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9">
+    <cfRule type="cellIs" dxfId="1" priority="158" operator="greaterThan">
+      <formula>W9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="4" priority="164" operator="lessThanOrEqual">
+      <formula>F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21">
+    <cfRule type="cellIs" dxfId="4" priority="169" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9">
+    <cfRule type="cellIs" dxfId="4" priority="159" operator="lessThanOrEqual">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11">
+    <cfRule type="cellIs" dxfId="4" priority="165" operator="lessThanOrEqual">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21">
+    <cfRule type="cellIs" dxfId="4" priority="170" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
+    <cfRule type="cellIs" dxfId="4" priority="160" operator="lessThanOrEqual">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L9" r:id="rId1"/>
+    <hyperlink ref="Q9" r:id="rId2"/>
+    <hyperlink ref="V9" r:id="rId3"/>
+    <hyperlink ref="AA9" r:id="rId4"/>
+    <hyperlink ref="AF9" r:id="rId5"/>
+    <hyperlink ref="AK9" r:id="rId6"/>
+    <hyperlink ref="L10" r:id="rId7"/>
+    <hyperlink ref="V10" r:id="rId8"/>
+    <hyperlink ref="L11" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="V11" r:id="rId11"/>
+    <hyperlink ref="AA11" r:id="rId12"/>
+    <hyperlink ref="L16" r:id="rId13"/>
+    <hyperlink ref="V16" r:id="rId14"/>
+    <hyperlink ref="L18" r:id="rId15"/>
+    <hyperlink ref="V18" r:id="rId16"/>
+    <hyperlink ref="L21" r:id="rId17"/>
+    <hyperlink ref="Q21" r:id="rId18"/>
+    <hyperlink ref="V21" r:id="rId19"/>
+    <hyperlink ref="AA21" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>